--- a/中国大学排名.xlsx
+++ b/中国大学排名.xlsx
@@ -4567,7 +4567,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>北京师范大学-香港浸会大学联合国际学院</t>
+          <t>北师香港浸会大学</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -37971,7 +37971,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>北京师范大学-香港浸会大学联合国际学院</t>
+          <t>北师香港浸会大学</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
